--- a/TESTE ATUALIZADO/Exemplo_Prof.xlsx
+++ b/TESTE ATUALIZADO/Exemplo_Prof.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\migue\OneDrive\Documentos\Uni\4 ano\1 semestre\Mecânica Estrutural\Trabalho Estrutural\Estrutural clonado\Estrutural\shell_FEM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\migue\OneDrive\Documentos\Uni\4 ano\1 semestre\Mecânica Estrutural\Trabalho Estrutural\Estrutural clonado\Estrutural\TESTE ATUALIZADO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B35742-B316-4777-9DF0-FFC1E4F1DB7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F0A1A1E-3BD4-40BF-BE8C-53D70CCCF21C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" activeTab="3" xr2:uid="{888A6D22-D5F6-4316-BCF6-51E52A0EEF22}"/>
   </bookViews>
@@ -1548,10 +1548,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4452,7 +4452,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -4511,7 +4511,8 @@
         <v>14</v>
       </c>
       <c r="D3" s="12">
-        <v>1</v>
+        <f>70*(10^9)</f>
+        <v>70000000000</v>
       </c>
       <c r="E3" s="12">
         <v>68.900000000000006</v>
@@ -4528,7 +4529,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="12">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="E4" s="12">
         <v>0.33</v>
@@ -4545,7 +4546,8 @@
         <v>15</v>
       </c>
       <c r="D5" s="12">
-        <v>19</v>
+        <f>19*(10^6)</f>
+        <v>19000000</v>
       </c>
       <c r="E5" s="12">
         <v>34</v>
@@ -4562,7 +4564,8 @@
         <v>16</v>
       </c>
       <c r="D6" s="12">
-        <v>32</v>
+        <f>32*(10^6)</f>
+        <v>32000000</v>
       </c>
       <c r="E6" s="12">
         <v>51</v>
@@ -4579,7 +4582,8 @@
         <v>17</v>
       </c>
       <c r="D7" s="25">
-        <v>27</v>
+        <f>27*(10^6)</f>
+        <v>27000000</v>
       </c>
       <c r="E7" s="25">
         <v>43</v>
@@ -4596,7 +4600,8 @@
         <v>18</v>
       </c>
       <c r="D8" s="12">
-        <v>207</v>
+        <f>207*(10^6)</f>
+        <v>207000000</v>
       </c>
       <c r="E8" s="12">
         <v>207</v>
@@ -5579,7 +5584,7 @@
   <dimension ref="A1:AL21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -5690,10 +5695,10 @@
         <v>0</v>
       </c>
       <c r="D2" s="10">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="E2" s="10">
-        <v>1</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="F2" s="51">
         <v>0</v>
@@ -5711,7 +5716,7 @@
         <v>10</v>
       </c>
       <c r="K2" s="10">
-        <v>29.9</v>
+        <v>30</v>
       </c>
       <c r="L2" s="46">
         <v>51</v>
@@ -5722,7 +5727,7 @@
       </c>
       <c r="N2" s="10">
         <f t="shared" ref="N2:N3" si="1">ROUND($L$2*(M2/SUM($M$2:$M$7)),0)</f>
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="O2" s="10">
         <v>49</v>
@@ -5754,10 +5759,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="F3" s="52">
         <v>0</v>
@@ -5773,16 +5778,16 @@
         <v>100</v>
       </c>
       <c r="K3" s="41">
-        <v>29.9</v>
+        <v>30</v>
       </c>
       <c r="L3" s="47"/>
       <c r="M3" s="43">
         <f t="shared" si="0"/>
-        <v>1.4142135623730951</v>
+        <v>1.0012492197250393</v>
       </c>
       <c r="N3" s="10">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="O3" s="10">
         <v>0</v>
